--- a/1. Accesos Email's Web's.xlsx
+++ b/1. Accesos Email's Web's.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ITS" sheetId="1" r:id="rId1"/>
@@ -699,9 +699,6 @@
     <t>operation@apumayo.com</t>
   </si>
   <si>
-    <t>l3YjY*5wshvG</t>
-  </si>
-  <si>
     <t xml:space="preserve"> reserva@apumayo.com</t>
   </si>
   <si>
@@ -723,9 +720,6 @@
     <t>salesweb@apumayo.com</t>
   </si>
   <si>
-    <t>6!xv*d#A)*V0</t>
-  </si>
-  <si>
     <t>supervisor@apumayo.com</t>
   </si>
   <si>
@@ -1072,6 +1066,12 @@
   </si>
   <si>
     <t>&amp;18&amp;DESA</t>
+  </si>
+  <si>
+    <t>;M1!GGxE&amp;-.3</t>
+  </si>
+  <si>
+    <t>SH2XdLkdO-$o</t>
   </si>
 </sst>
 </file>
@@ -1467,175 +1467,178 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,6 +1656,36 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1662,44 +1695,11 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1984,7 +1984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E22" sqref="E22:G22"/>
     </sheetView>
   </sheetViews>
@@ -1994,14 +1994,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="39" t="s">
@@ -2009,119 +2009,119 @@
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="53" t="s">
         <v>167</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="48" t="s">
-        <v>344</v>
-      </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="65" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="64" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="51" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="48" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="51" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="48" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="51" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="48" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
       <c r="H12" t="s">
         <v>183</v>
       </c>
@@ -2132,23 +2132,23 @@
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="48" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
@@ -2156,71 +2156,71 @@
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="56" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="51" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="48" t="s">
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="51" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="48" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="39" t="s">
@@ -2228,35 +2228,35 @@
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="37" t="s">
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="39" t="s">
@@ -2264,23 +2264,23 @@
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="37" t="s">
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="s">
@@ -2288,23 +2288,23 @@
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="37" t="s">
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="39" t="s">
@@ -2312,43 +2312,43 @@
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="37" t="s">
         <v>128</v>
       </c>
       <c r="C30" s="35"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="37" t="s">
         <v>133</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="36"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="34" t="s">
         <v>168</v>
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="37" t="s">
         <v>169</v>
       </c>
       <c r="F31" s="35"/>
@@ -2356,14 +2356,57 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="B2:G2"/>
@@ -2380,49 +2423,6 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B31" r:id="rId1"/>
@@ -2451,10 +2451,10 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2479,184 +2479,173 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74" t="s">
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="68" t="s">
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="68" t="s">
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="76" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="77"/>
-      <c r="G14" s="78"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="76"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="68" t="s">
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="B2:G2"/>
@@ -2673,6 +2662,17 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2693,95 +2693,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="87"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="86"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="83"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="86"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="83"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="87" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="B2:G2"/>
@@ -2789,6 +2783,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2810,382 +2810,382 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="I2" s="60" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="I2" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="99" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="I3" s="102" t="s">
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
+      <c r="I3" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102" t="s">
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="I6" s="92" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="I6" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92" t="s">
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102" t="s">
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="I9" s="102" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="I9" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102" t="s">
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102" t="s">
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="80" t="s">
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I13" s="92" t="s">
+      <c r="I13" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92" t="s">
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
-      <c r="I14" s="105" t="s">
-        <v>247</v>
-      </c>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="79"/>
+      <c r="I14" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="99" t="s">
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
-      <c r="I15" s="60" t="s">
+      <c r="F15" s="105"/>
+      <c r="G15" s="106"/>
+      <c r="I15" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="80" t="s">
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="82"/>
-      <c r="I16" s="92" t="s">
+      <c r="F16" s="86"/>
+      <c r="G16" s="87"/>
+      <c r="I16" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92" t="s">
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="99" t="s">
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="100"/>
-      <c r="G17" s="101"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="106"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I18" s="60" t="s">
+      <c r="I18" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="I19" s="92" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="I19" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92" t="s">
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102" t="s">
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="I22" s="60" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="I22" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="92" t="s">
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="I23" s="92" t="s">
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="I23" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92" t="s">
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="95" t="s">
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="I26" s="60" t="s">
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="I26" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="95" t="s">
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="I27" s="92" t="s">
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="I27" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="95" t="s">
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
@@ -3193,11 +3193,11 @@
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="106" t="s">
+      <c r="E28" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="89"/>
-      <c r="G28" s="90"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="99"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -3211,11 +3211,11 @@
         <v>170</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="89" t="s">
+      <c r="E29" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="89"/>
-      <c r="G29" s="90"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="99"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -3224,16 +3224,16 @@
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="93" t="s">
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -3244,203 +3244,235 @@
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="95" t="s">
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="91"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="91"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I36" s="33" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J36" s="33"/>
       <c r="L36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="96" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="96" t="s">
+        <v>239</v>
+      </c>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="92" t="s">
+        <v>320</v>
+      </c>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="94" t="s">
+        <v>321</v>
+      </c>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="92" t="s">
+        <v>322</v>
+      </c>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="94" t="s">
+        <v>323</v>
+      </c>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="90" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="95" t="s">
-        <v>176</v>
-      </c>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="91" t="s">
-        <v>177</v>
-      </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="91" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="93" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="95" t="s">
-        <v>241</v>
-      </c>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="91" t="s">
-        <v>322</v>
-      </c>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="93" t="s">
-        <v>323</v>
-      </c>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="91" t="s">
-        <v>324</v>
-      </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="93" t="s">
-        <v>325</v>
-      </c>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="107" t="s">
-        <v>340</v>
-      </c>
-      <c r="C51" s="108"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108" t="s">
-        <v>341</v>
-      </c>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91" t="s">
+        <v>339</v>
+      </c>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:G30"/>
@@ -3457,58 +3489,26 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1"/>
@@ -3555,18 +3555,18 @@
   <sheetData>
     <row r="3" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E3" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E4" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3607,7 +3607,7 @@
         <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -3623,10 +3623,10 @@
         <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -3637,7 +3637,7 @@
         <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -3656,7 +3656,7 @@
         <v>144</v>
       </c>
       <c r="E13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -3667,53 +3667,53 @@
         <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3732,8 +3732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3743,10 +3743,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="110"/>
+      <c r="D2" s="111"/>
     </row>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="14" t="s">
@@ -3909,7 +3909,7 @@
         <v>219</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>220</v>
+        <v>344</v>
       </c>
       <c r="E18" t="s">
         <v>192</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>221</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>222</v>
       </c>
       <c r="E19" t="s">
         <v>192</v>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>223</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>224</v>
       </c>
       <c r="E20" t="s">
         <v>192</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="E21" t="s">
         <v>192</v>
@@ -3950,10 +3950,10 @@
     </row>
     <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>228</v>
+        <v>343</v>
       </c>
       <c r="E22" t="s">
         <v>192</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E23" t="s">
         <v>192</v>
@@ -3972,10 +3972,10 @@
     </row>
     <row r="24" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E24" t="s">
         <v>192</v>
@@ -4029,282 +4029,282 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
